--- a/data/trans_orig/IP16B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F7B732-5D2C-4BA2-845B-D81251588B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B10465A-C3D9-45C9-A8CF-EE1ED16691C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EE45180E-C3CA-4B77-90F6-7FF502C46199}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{56F607CB-5A0F-4AF0-BB9F-0DCEE1E9BB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,46 +67,46 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>Capitales</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC182911-BD0C-4D92-A566-7F97FB12F530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A2FF70-BBC1-42FF-8A2B-5FF2C0CA12D8}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -650,34 +650,30 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -699,39 +695,35 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -756,13 +748,13 @@
         <v>598</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -771,13 +763,13 @@
         <v>598</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -805,13 +797,13 @@
         <v>598</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -820,66 +812,64 @@
         <v>598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <v>1335</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
       <c r="I8" s="7">
-        <v>793</v>
+        <v>1047</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>2128</v>
+        <v>1047</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -888,96 +878,100 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
-        <v>1335</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
       <c r="I9" s="7">
-        <v>793</v>
+        <v>1047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>2128</v>
+        <v>1047</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1937</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2760</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4697</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -986,96 +980,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1937</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2760</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4697</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1937</v>
+        <v>1335</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>793</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2760</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>4697</v>
+        <v>2128</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1084,49 +1084,49 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1937</v>
+        <v>1335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>2760</v>
+        <v>793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>4697</v>
+        <v>2128</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,13 +1143,13 @@
         <v>3272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -1158,13 +1158,13 @@
         <v>5197</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -1173,13 +1173,13 @@
         <v>8469</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1194,13 +1194,13 @@
         <v>3272</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -1209,13 +1209,13 @@
         <v>5197</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -1224,13 +1224,13 @@
         <v>8469</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1251,7 +1251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD73CC0-2B9C-4CAF-A83C-DCD02A6E5A9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BB345B-1F3F-44A5-B29D-2B83F89145C0}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1369,49 +1369,43 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1420,54 +1414,48 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -1479,13 +1467,13 @@
         <v>1637</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1507,13 +1495,13 @@
         <v>1637</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1528,13 +1516,13 @@
         <v>1637</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1556,66 +1544,66 @@
         <v>1637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2063</v>
+        <v>647</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>787</v>
+        <v>1589</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>2850</v>
+        <v>2236</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,96 +1612,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>2063</v>
+        <v>647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>787</v>
+        <v>1589</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>2850</v>
+        <v>2236</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1235</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1126</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2361</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,96 +1716,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1235</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1126</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2361</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>1235</v>
+        <v>2063</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>787</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1126</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>2361</v>
+        <v>2850</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,49 +1820,49 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1235</v>
+        <v>2063</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1126</v>
+        <v>787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2361</v>
+        <v>2850</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1879,13 @@
         <v>5582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1894,13 +1894,13 @@
         <v>3501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1909,13 +1909,13 @@
         <v>9083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1930,13 @@
         <v>5582</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -1945,13 +1945,13 @@
         <v>3501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -1960,13 +1960,13 @@
         <v>9083</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +1987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73343051-F972-4390-8CD7-DA1BC6E08C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A292A554-8AB6-457D-9670-1FA8E464005B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2118,34 +2118,30 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,39 +2163,35 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -2224,13 +2216,13 @@
         <v>560</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2239,13 +2231,13 @@
         <v>560</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2265,13 @@
         <v>560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2288,18 +2280,18 @@
         <v>560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2318,30 +2310,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>564</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>564</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,77 +2359,87 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>564</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>564</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2799</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1153</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3952</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,96 +2448,96 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2799</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1153</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3952</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,49 +2546,43 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2599,13 @@
         <v>2799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2614,13 +2614,13 @@
         <v>2277</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2629,13 +2629,13 @@
         <v>5075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2650,13 @@
         <v>2799</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -2665,13 +2665,13 @@
         <v>2277</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -2680,13 +2680,13 @@
         <v>5075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B10465A-C3D9-45C9-A8CF-EE1ED16691C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{317B6772-9CB9-409F-9EB5-992EDC606B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{56F607CB-5A0F-4AF0-BB9F-0DCEE1E9BB7F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19D0AE14-9213-4149-855C-AAE44CE33C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="31">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2007 (Tasa respuesta: 0,67%)</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>87,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2012 (Tasa respuesta: 0,62%)</t>
@@ -138,7 +141,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -234,39 +237,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -318,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -429,13 +432,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -444,6 +440,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -508,19 +511,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A2FF70-BBC1-42FF-8A2B-5FF2C0CA12D8}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9D3752-2941-40C4-A8FD-282BF7478FC4}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1233,6 +1256,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
@@ -1251,8 +1279,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BB345B-1F3F-44A5-B29D-2B83F89145C0}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24AC6C0-1E0C-4C47-864D-F6B355EA8310}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1268,7 +1296,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1704,7 +1732,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -1808,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>15</v>
@@ -1912,7 +1940,7 @@
         <v>13</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>15</v>
@@ -1967,6 +1995,11 @@
       </c>
       <c r="Q15" s="7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1987,8 +2020,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A292A554-8AB6-457D-9670-1FA8E464005B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB77E66-32F8-4C72-8C47-E7E36DAE2646}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2004,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2406,7 +2439,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2436,7 +2469,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -2602,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -2617,7 +2650,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>15</v>
@@ -2687,6 +2720,11 @@
       </c>
       <c r="Q15" s="7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B09-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{317B6772-9CB9-409F-9EB5-992EDC606B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB540CF-920C-4D50-AB6E-9A7437DB3861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19D0AE14-9213-4149-855C-AAE44CE33C6F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{018FAFB1-D645-44B3-AE8E-DA4526658993}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,7 +76,7 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -88,13 +88,13 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -127,7 +127,7 @@
     <t>86,51%</t>
   </si>
   <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2015 (Tasa respuesta: 0,38%)</t>
+    <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2016 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9D3752-2941-40C4-A8FD-282BF7478FC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE2D908-4562-454A-94E1-2356D030D14F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24AC6C0-1E0C-4C47-864D-F6B355EA8310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5192435-975C-4F77-804A-192B7A64AB02}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2020,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB77E66-32F8-4C72-8C47-E7E36DAE2646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6327F67-C71F-43F3-A3A3-7490E44D2DC2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB540CF-920C-4D50-AB6E-9A7437DB3861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C89165D8-B9E1-4831-99DF-68E8A7CC0063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{018FAFB1-D645-44B3-AE8E-DA4526658993}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{05DD9D8D-AA2A-48CA-AF20-5216F742A215}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="30">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2007 (Tasa respuesta: 0,67%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,40 +67,37 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>—%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>69,43%</t>
   </si>
   <si>
     <t>55,59%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -542,8 +539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE2D908-4562-454A-94E1-2356D030D14F}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFE53C7-FF24-49A7-995C-CAFE0B9BE67E}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -660,43 +657,47 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>598</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>598</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -705,94 +706,98 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>598</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>598</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1047</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>598</v>
-      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>598</v>
+        <v>1047</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -801,98 +806,100 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1047</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>598</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>598</v>
+        <v>1047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2760</v>
+      </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>1047</v>
+        <v>1937</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>1047</v>
+        <v>4697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -901,100 +908,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2760</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1047</v>
+        <v>1937</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>1047</v>
+        <v>4697</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1937</v>
+        <v>793</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1335</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2128</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2760</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="7">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4697</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1003,102 +1012,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1937</v>
+        <v>793</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2760</v>
+        <v>1335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>4697</v>
+        <v>2128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>1335</v>
+        <v>5197</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>793</v>
+        <v>3272</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>2128</v>
+        <v>8469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1107,166 +1116,61 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>1335</v>
+        <v>5197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>793</v>
+        <v>3272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>2128</v>
+        <v>8469</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3272</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5197</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="7">
-        <v>14</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8469</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3272</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
-        <v>9</v>
-      </c>
-      <c r="I15" s="7">
-        <v>5197</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
-        <v>14</v>
-      </c>
-      <c r="N15" s="7">
-        <v>8469</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1279,8 +1183,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5192435-975C-4F77-804A-192B7A64AB02}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECABF60D-2BF9-45D9-B8F7-279D0754E081}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1296,7 +1200,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1401,39 +1305,43 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1637</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1637</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,44 +1354,48 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1637</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1637</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -1492,44 +1404,46 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1637</v>
+        <v>1589</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>647</v>
+      </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>1637</v>
+        <v>2236</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1541,97 +1455,99 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1637</v>
+        <v>1589</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>647</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>1637</v>
+        <v>2236</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>647</v>
+        <v>1126</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1589</v>
+        <v>1235</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>2236</v>
+        <v>2361</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1640,102 +1556,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>647</v>
+        <v>1126</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1589</v>
+        <v>1235</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>2236</v>
+        <v>2361</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1235</v>
+        <v>787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1126</v>
+        <v>2063</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2361</v>
+        <v>2850</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,102 +1660,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1235</v>
+        <v>787</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>1126</v>
+        <v>2063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2361</v>
+        <v>2850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>2063</v>
+        <v>3501</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>787</v>
+        <v>5582</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>2850</v>
+        <v>9083</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,166 +1764,61 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>2063</v>
+        <v>3501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>787</v>
+        <v>5582</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>2850</v>
+        <v>9083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7">
-        <v>5582</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3501</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9083</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5582</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3501</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
-        <v>13</v>
-      </c>
-      <c r="N15" s="7">
-        <v>9083</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
+      <c r="A14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2020,8 +1831,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6327F67-C71F-43F3-A3A3-7490E44D2DC2}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EDA695-BF16-4983-B8B4-7A938D308DF9}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2037,7 +1848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2138,43 +1949,47 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>560</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>560</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,94 +1998,98 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>560</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>560</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>564</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>560</v>
-      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,98 +2098,100 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>564</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>560</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1153</v>
+      </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>564</v>
+        <v>2799</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>564</v>
+        <v>3952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,100 +2200,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1153</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>564</v>
+        <v>2799</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>564</v>
+        <v>3952</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,96 +2298,96 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2277</v>
+      </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2799</v>
+      </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5075</v>
+      </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,160 +2396,61 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2277</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2799</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5075</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2799</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2277</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5075</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2799</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2277</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
-        <v>8</v>
-      </c>
-      <c r="N15" s="7">
-        <v>5075</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
+      <c r="A14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
